--- a/production/BOM.xlsx
+++ b/production/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebo\PycharmProjects\MagicDoors\domain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebo\PycharmProjects\SBProduction\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EAA99B-3C8D-4F4E-B787-32DF07C311D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A2381F-CC42-4222-96D4-3691E8BD56D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" tabRatio="359" xr2:uid="{6D9D13D1-3A57-4BBE-9BC1-DD1BD675AD8F}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="16200" windowHeight="8295" tabRatio="359" xr2:uid="{6D9D13D1-3A57-4BBE-9BC1-DD1BD675AD8F}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9273CD18-0B87-4FDC-8931-6B970EF73239}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
